--- a/Cartes.xlsx
+++ b/Cartes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cceba2a6977e8055/2 TRAVAIL/03 Emploi/Docaposte décembre 2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B7A89B-677D-4477-B6DC-F0E9F2D19A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{57B7A89B-677D-4477-B6DC-F0E9F2D19A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF3A4B35-922E-489D-AFBD-F10999587721}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="16200" windowWidth="18420" windowHeight="13770" xr2:uid="{EB090B43-CAC9-4520-A9D5-71B4F0B3459B}"/>
+    <workbookView xWindow="1620" yWindow="615" windowWidth="23655" windowHeight="13980" xr2:uid="{EB090B43-CAC9-4520-A9D5-71B4F0B3459B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>Région</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>valeur</t>
+  </si>
+  <si>
+    <t>categorie</t>
   </si>
 </sst>
 </file>
@@ -597,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA051358-6ADB-40E2-A884-CCB244E6B81A}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C51"/>
+      <selection activeCell="D2" sqref="D2:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +612,7 @@
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,8 +622,11 @@
       <c r="C1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -629,10 +635,14 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(10000,20000)</f>
-        <v>14548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>11191</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -641,10 +651,14 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C51" ca="1" si="0">RANDBETWEEN(10000,20000)</f>
-        <v>10656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>15361</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D51" ca="1" si="1">RANDBETWEEN(1,5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -653,10 +667,14 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>17689</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>18413</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -665,10 +683,14 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>16280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>10906</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -677,10 +699,14 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>16896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>11128</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -689,10 +715,14 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>13622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>19565</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -701,10 +731,14 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>15357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>10944</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -713,10 +747,14 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>18592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>10981</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -725,10 +763,14 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>17702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>14667</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -737,10 +779,14 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>14395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>16447</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -749,10 +795,14 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>14233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>14368</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -761,10 +811,14 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>15351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>18322</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -773,10 +827,14 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>18900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>16966</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -785,10 +843,14 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>12180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>10014</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -797,10 +859,14 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>11028</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>19009</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -809,10 +875,14 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>10665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14376</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -821,10 +891,14 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>12219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>12399</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -833,10 +907,14 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>10148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13926</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -845,10 +923,14 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>10017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11158</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -857,10 +939,14 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>11990</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>17183</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -869,10 +955,14 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>19998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>11741</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -881,10 +971,14 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>12633</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>16296</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -893,10 +987,14 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>18393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>16108</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -905,10 +1003,14 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>19653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13555</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -917,10 +1019,14 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>15508</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16471</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -929,10 +1035,14 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>12692</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12673</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -941,10 +1051,14 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>12320</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10456</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
@@ -953,10 +1067,14 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>15252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>18099</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -965,10 +1083,14 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>18438</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>10845</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -977,10 +1099,14 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>16445</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>11582</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -989,10 +1115,14 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>13042</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>19858</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1001,10 +1131,14 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>15867</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18306</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -1013,10 +1147,14 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>12406</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13865</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -1025,10 +1163,14 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>10584</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19320</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -1037,10 +1179,14 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>19890</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19899</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
@@ -1049,10 +1195,14 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>11737</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19189</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -1061,10 +1211,14 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>18893</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11563</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -1073,10 +1227,14 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>10822</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12065</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
@@ -1085,10 +1243,14 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>13215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16479</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1097,10 +1259,14 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>18159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>15719</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
@@ -1109,10 +1275,14 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>16634</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>19326</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -1121,10 +1291,14 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>12702</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>13915</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -1133,10 +1307,14 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>11138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>12834</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
@@ -1145,10 +1323,14 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>16061</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>14428</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
@@ -1157,10 +1339,14 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>17575</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>17071</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
@@ -1169,10 +1355,14 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>15198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>15289</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>57</v>
       </c>
@@ -1181,10 +1371,14 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>11803</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>10418</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -1193,10 +1387,14 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>19703</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11810</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>62</v>
       </c>
@@ -1205,10 +1403,14 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>11126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15368</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>62</v>
       </c>
@@ -1217,7 +1419,11 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>15823</v>
+        <v>10787</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
